--- a/admin/rdm/tw_rdm_for_prod_2021_12_08.xlsx
+++ b/admin/rdm/tw_rdm_for_prod_2021_12_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/PycharmProjects/arches/digipolis-arches-pkg/admin/rdm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB9E19-E4EC-B84E-B6FA-2154E948B0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2A1BE-0F72-E348-937A-E8DDF9B13B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="27640" windowHeight="16540" firstSheet="24" activeTab="32" xr2:uid="{473DAA05-83F2-9341-A9FA-A7DB6C9571CF}"/>
+    <workbookView xWindow="2940" yWindow="1820" windowWidth="27640" windowHeight="16540" firstSheet="18" activeTab="20" xr2:uid="{473DAA05-83F2-9341-A9FA-A7DB6C9571CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation lookup" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="include_codes_temp_1" localSheetId="30">'Techniek mapping'!$A$90:$B$105</definedName>
     <definedName name="include_codes_temp_2" localSheetId="18">'Material mapping'!$A$130:$B$142</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{A730E66D-B2F5-A74A-866D-597C2F377978}" name="include_codes_temp" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup_3/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup_3/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -121,7 +121,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{48A0F16C-6FB0-BE48-B367-747B10E641BA}" name="include_codes_temp1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup_3/include_codes_temp.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup_3/include_codes_temp.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -129,7 +129,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{49885EA8-4FBE-A24F-8431-0DC682818071}" name="include_codes_temp10" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -137,7 +137,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{CB33D4D8-5A64-8D44-9E30-8498A35B2F39}" name="include_codes_temp11" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -145,7 +145,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{F9026252-5376-1743-B1E8-1DFADB70777A}" name="include_codes_temp12" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -153,7 +153,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{0BD257D1-CF85-2D4C-A7FC-C6703B47CE91}" name="include_codes_temp13" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -161,7 +161,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{E6B417D8-5115-F94B-862E-107A95D42E22}" name="include_codes_temp14" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -169,7 +169,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{F8BE779E-5369-5E44-94ED-E71117F1CCDE}" name="include_codes_temp2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup_3/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup_3/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -177,7 +177,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{83FDCDDE-B3C5-A648-A131-0D36FCB1CC2F}" name="include_codes_temp3" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -185,7 +185,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{2EB86583-0CA5-D44F-857E-E34F6BFFD505}" name="include_codes_temp4" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -193,7 +193,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{9FC2903E-69FB-3C4F-B756-FA3A6957919B}" name="include_codes_temp5" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -201,7 +201,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{A3E4971A-5C41-954C-BDBE-5187F0639ACA}" name="include_codes_temp7" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -209,7 +209,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{09505B7A-D7F8-F244-8C43-BD44495ADAAD}" name="include_codes_temp8" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -217,7 +217,7 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{863F54F3-8D1A-7548-9892-85A16227FC33}" name="include_codes_temp9" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " tab="0" delimiter="#">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/include_codes_temp.csv" decimal="," thousands=" " tab="0" delimiter="#">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1566">
   <si>
     <t>code</t>
   </si>
@@ -2498,25 +2498,13 @@
     <t>seals (marks)</t>
   </si>
   <si>
-    <t>akak</t>
-  </si>
-  <si>
-    <t>Akte</t>
-  </si>
-  <si>
     <t>Digipolis Thesauri\Object Type\</t>
   </si>
   <si>
-    <t>notarial documents</t>
-  </si>
-  <si>
     <t>kenmerken/mpmtypeak</t>
   </si>
   <si>
     <t>include_codes: ["akwagm", "akwaht", "akwaze"],</t>
-  </si>
-  <si>
-    <t>include_codes: ["akak"],</t>
   </si>
   <si>
     <t>manuscripts (documents)</t>
@@ -4945,8 +4933,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="\&quot;@\&quot;\,"/>
-    <numFmt numFmtId="169" formatCode="\&quot;@\&quot;\,\ "/>
+    <numFmt numFmtId="164" formatCode="\&quot;@\&quot;\,"/>
+    <numFmt numFmtId="165" formatCode="\&quot;@\&quot;\,\ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -4969,11 +4957,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -5215,10 +5205,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5227,7 +5217,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5237,7 +5227,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5250,14 +5240,14 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5387,43 +5377,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="4" xr16:uid="{7D9EFCED-A869-044C-A71C-41C01DEBE913}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp_1" connectionId="5" xr16:uid="{4830E7EE-DF6C-6944-B6E8-92AAB75D2A5B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="4" xr16:uid="{7D9EFCED-A869-044C-A71C-41C01DEBE913}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="6" xr16:uid="{E0662FD3-A50A-9E42-8FB0-5092EA322C6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp_1" connectionId="7" xr16:uid="{D14B9CD9-73B2-D744-A66A-120AF0F0D399}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="6" xr16:uid="{E0662FD3-A50A-9E42-8FB0-5092EA322C6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="2" xr16:uid="{A3BE33FE-339D-8849-B31A-AC7015C35EC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp_1" connectionId="8" xr16:uid="{90B0EA57-22C6-5C44-9AE2-63C21C7D24CA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="2" xr16:uid="{A3BE33FE-339D-8849-B31A-AC7015C35EC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="9" xr16:uid="{E04627B3-F07F-1444-9A0B-1D44756D9A88}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp_1" connectionId="10" xr16:uid="{9166FAD8-85A8-4241-BB86-1B08BAEC9939}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="9" xr16:uid="{E04627B3-F07F-1444-9A0B-1D44756D9A88}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp_2" connectionId="12" xr16:uid="{BE9519ED-7216-5745-A912-91A1E28814DF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="11" xr16:uid="{A12691DD-85AE-EF49-8AA6-7CD41EB1918A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp" connectionId="11" xr16:uid="{A12691DD-85AE-EF49-8AA6-7CD41EB1918A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="include_codes_temp_2" connectionId="12" xr16:uid="{BE9519ED-7216-5745-A912-91A1E28814DF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11454,7 +11444,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12733,7 +12723,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12835,27 +12825,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>757</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>759</v>
-      </c>
-      <c r="E5" s="19">
-        <v>300164785</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>760</v>
-      </c>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12867,8 +12843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A15BDEB-B15F-7C43-84EA-35D4E6B28BC9}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12902,28 +12878,20 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>756</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>749</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>762</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12970,16 +12938,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E2" s="19">
         <v>300026710</v>
@@ -12990,16 +12958,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E3" s="19">
         <v>300250949</v>
@@ -13010,16 +12978,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E4" s="19">
         <v>300026676</v>
@@ -13030,16 +12998,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E5" s="19">
         <v>300027573</v>
@@ -13050,16 +13018,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E6" s="19">
         <v>300027621</v>
@@ -13070,16 +13038,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E7" s="19">
         <v>300027392</v>
@@ -13090,16 +13058,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E8" s="19">
         <v>300027527</v>
@@ -13110,16 +13078,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E9" s="19">
         <v>300027621</v>
@@ -13130,16 +13098,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
@@ -13148,16 +13116,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E11" s="19">
         <v>300027764</v>
@@ -13168,16 +13136,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E12" s="19">
         <v>300026925</v>
@@ -13188,16 +13156,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E13" s="19">
         <v>300201447</v>
@@ -13208,16 +13176,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E14" s="19">
         <v>300027473</v>
@@ -13234,10 +13202,10 @@
         <v>303</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E15" s="19">
         <v>300028569</v>
@@ -13248,16 +13216,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E16" s="19">
         <v>300026879</v>
@@ -13268,16 +13236,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E17" s="19">
         <v>300026816</v>
@@ -13288,16 +13256,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>983</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>987</v>
       </c>
       <c r="E18" s="19">
         <v>300026882</v>
@@ -13308,16 +13276,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E19" s="19">
         <v>300026114</v>
@@ -13334,10 +13302,10 @@
         <v>103</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E20" s="19">
         <v>300149026</v>
@@ -13348,16 +13316,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E21" s="19">
         <v>300240262</v>
@@ -13368,16 +13336,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E22" s="19">
         <v>300026778</v>
@@ -13388,16 +13356,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E23" s="19">
         <v>300026879</v>
@@ -13408,16 +13376,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E24" s="19">
         <v>300026816</v>
@@ -13428,16 +13396,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E25" s="19">
         <v>300026819</v>
@@ -13448,16 +13416,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="19">
         <v>300026909</v>
@@ -13468,16 +13436,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E27" s="19">
         <v>300400813</v>
@@ -13488,16 +13456,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E28" s="19">
         <v>300026823</v>
@@ -13508,16 +13476,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E29" s="19">
         <v>300128366</v>
@@ -13528,16 +13496,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E30" s="19">
         <v>300128357</v>
@@ -13548,16 +13516,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E31" s="19">
         <v>300128359</v>
@@ -13568,16 +13536,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E32" s="19">
         <v>300026487</v>
@@ -13588,16 +13556,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E33" s="19">
         <v>300026030</v>
@@ -13608,16 +13576,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E34" s="19">
         <v>300026942</v>
@@ -13628,16 +13596,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E35" s="19">
         <v>300027473</v>
@@ -13648,16 +13616,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E36" s="19">
         <v>300212274</v>
@@ -13668,16 +13636,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E37" s="19">
         <v>300026676</v>
@@ -13688,16 +13656,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E38" s="19">
         <v>300026799</v>
@@ -13708,16 +13676,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E39" s="19">
         <v>300026756</v>
@@ -13728,16 +13696,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E40" s="19">
         <v>300026867</v>
@@ -13748,16 +13716,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E41" s="19">
         <v>300212274</v>
@@ -13768,16 +13736,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E42" s="19">
         <v>300026432</v>
@@ -13788,16 +13756,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E43" s="19">
         <v>300255378</v>
@@ -13808,16 +13776,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E44" s="19">
         <v>300026424</v>
@@ -13828,16 +13796,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E45" s="19">
         <v>300027191</v>
@@ -13848,16 +13816,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E46" s="19">
         <v>300026443</v>
@@ -13868,16 +13836,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E47" s="19">
         <v>300262918</v>
@@ -13888,16 +13856,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E48" s="19">
         <v>300027240</v>
@@ -13914,10 +13882,10 @@
         <v>307</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E49" s="19">
         <v>300028569</v>
@@ -13928,16 +13896,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E50" s="19">
         <v>300127181</v>
@@ -13948,16 +13916,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E51" s="19">
         <v>300026823</v>
@@ -13968,16 +13936,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E52" s="19">
         <v>300026867</v>
@@ -13988,16 +13956,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E53" s="19">
         <v>300026879</v>
@@ -14008,16 +13976,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E54" s="19">
         <v>300026816</v>
@@ -14028,16 +13996,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E55" s="19">
         <v>300026030</v>
@@ -14048,16 +14016,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E56" s="19">
         <v>300028051</v>
@@ -14068,16 +14036,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E57" s="19">
         <v>300026879</v>
@@ -14088,16 +14056,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E58" s="19">
         <v>300026942</v>
@@ -14108,16 +14076,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E59" s="19">
         <v>300026942</v>
@@ -14128,16 +14096,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E60" s="19">
         <v>300028569</v>
@@ -14148,16 +14116,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E61" s="19">
         <v>300212274</v>
@@ -14174,10 +14142,10 @@
         <v>111</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E62" s="19">
         <v>300026030</v>
@@ -14188,13 +14156,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>119</v>
@@ -14208,16 +14176,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E64" s="19">
         <v>300049060</v>
@@ -14228,16 +14196,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E65" s="19">
         <v>300041273</v>
@@ -14248,16 +14216,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E66" s="19">
         <v>300028569</v>
@@ -14268,13 +14236,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>119</v>
@@ -14288,16 +14256,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E68" s="19">
         <v>300048715</v>
@@ -14308,16 +14276,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E69" s="19">
         <v>300026879</v>
@@ -14328,16 +14296,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E70" s="19">
         <v>300026867</v>
@@ -14348,16 +14316,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E71" s="19">
         <v>300264354</v>
@@ -14368,16 +14336,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E72" s="19">
         <v>300027200</v>
@@ -14388,16 +14356,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E73" s="19">
         <v>300262918</v>
@@ -14408,16 +14376,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E74" s="19">
         <v>300028569</v>
@@ -14428,16 +14396,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E75" s="19">
         <v>300026819</v>
@@ -14448,16 +14416,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="E76" s="19">
         <v>300027264</v>
@@ -14468,16 +14436,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E77" s="19">
         <v>300311954</v>
@@ -14488,16 +14456,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E78" s="19">
         <v>300134722</v>
@@ -14508,16 +14476,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E79" s="19">
         <v>300145802</v>
@@ -14528,16 +14496,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E80" s="19">
         <v>300027200</v>
@@ -14548,16 +14516,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E81" s="19">
         <v>300026096</v>
@@ -14568,16 +14536,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E82" s="19">
         <v>300026909</v>
@@ -14588,16 +14556,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E83" s="19">
         <v>300127478</v>
@@ -14608,16 +14576,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E84" s="19">
         <v>300026657</v>
@@ -14628,16 +14596,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E85" s="19">
         <v>300028569</v>
@@ -14648,16 +14616,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E86" s="19">
         <v>300027083</v>
@@ -14668,16 +14636,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E87" s="19">
         <v>300026068</v>
@@ -14688,16 +14656,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E88" s="19">
         <v>300026823</v>
@@ -14708,16 +14676,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E89" s="19">
         <v>300026074</v>
@@ -14728,16 +14696,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E90" s="19">
         <v>300049060</v>
@@ -14748,16 +14716,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E91" s="19">
         <v>300138696</v>
@@ -14768,16 +14736,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E92" s="19">
         <v>300138696</v>
@@ -14788,16 +14756,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E93" s="19">
         <v>300053623</v>
@@ -14808,16 +14776,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E94" s="19">
         <v>300047457</v>
@@ -14828,16 +14796,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E95" s="19">
         <v>300047724</v>
@@ -14848,16 +14816,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E96" s="19">
         <v>300028569</v>
@@ -14868,16 +14836,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E97" s="19">
         <v>300047469</v>
@@ -14888,16 +14856,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E98" s="19">
         <v>300028569</v>
@@ -14908,16 +14876,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E99" s="19">
         <v>300047724</v>
@@ -14928,16 +14896,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E100" s="19">
         <v>300047896</v>
@@ -14948,16 +14916,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E101" s="19">
         <v>300262520</v>
@@ -14968,16 +14936,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E102" s="19">
         <v>300077357</v>
@@ -14988,16 +14956,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E103" s="19">
         <v>300138758</v>
@@ -15008,16 +14976,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E104" s="19">
         <v>300047837</v>
@@ -15028,16 +14996,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E105" s="19">
         <v>300265083</v>
@@ -15048,16 +15016,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E106" s="19">
         <v>300010262</v>
@@ -15068,16 +15036,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E107" s="19">
         <v>300343592</v>
@@ -15088,16 +15056,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E108" s="19">
         <v>300404835</v>
@@ -15108,16 +15076,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E109" s="19">
         <v>300027200</v>
@@ -15128,16 +15096,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E110" s="19">
         <v>300026427</v>
@@ -15148,16 +15116,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E111" s="19">
         <v>300264354</v>
@@ -15174,10 +15142,10 @@
         <v>310</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E112" s="19">
         <v>300028569</v>
@@ -15188,16 +15156,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E113" s="19">
         <v>300026693</v>
@@ -15208,16 +15176,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E114" s="19">
         <v>300027489</v>
@@ -15228,16 +15196,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E115" s="19">
         <v>300027496</v>
@@ -15248,16 +15216,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E116" s="19">
         <v>300027045</v>
@@ -15268,16 +15236,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19" t="s">
@@ -15286,16 +15254,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E118" s="19">
         <v>300115233</v>
@@ -15306,16 +15274,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E119" s="19">
         <v>300264330</v>
@@ -15326,16 +15294,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="E120" s="19">
         <v>300263886</v>
@@ -15346,16 +15314,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C121" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>976</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>980</v>
       </c>
       <c r="E121" s="19">
         <v>300034104</v>
@@ -15366,16 +15334,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E122" s="19">
         <v>300033973</v>
@@ -15389,13 +15357,13 @@
         <v>402</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E123" s="19">
         <v>300028569</v>
@@ -15406,16 +15374,16 @@
     </row>
     <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E124" s="19">
         <v>300263898</v>
@@ -15426,16 +15394,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E125" s="19">
         <v>300266808</v>
@@ -15446,16 +15414,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E126" s="19">
         <v>300234117</v>
@@ -15466,16 +15434,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E127" s="19">
         <v>300343358</v>
@@ -15486,16 +15454,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E128" s="19">
         <v>300266810</v>
@@ -15506,16 +15474,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E129" s="19">
         <v>300133005</v>
@@ -15526,16 +15494,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E130" s="19">
         <v>300046025</v>
@@ -15546,16 +15514,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E131" s="19">
         <v>300028884</v>
@@ -15566,16 +15534,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E132" s="19">
         <v>300037680</v>
@@ -15586,16 +15554,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E133" s="19">
         <v>300041620</v>
@@ -15612,10 +15580,10 @@
         <v>313</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E134" s="19">
         <v>300028569</v>
@@ -15626,16 +15594,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E135" s="19">
         <v>300215545</v>
@@ -15646,16 +15614,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E136" s="19">
         <v>300263853</v>
@@ -15666,16 +15634,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E137" s="19">
         <v>300433073</v>
@@ -15686,16 +15654,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E138" s="19">
         <v>300027267</v>
@@ -15706,16 +15674,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E139" s="19">
         <v>300014842</v>
@@ -15726,16 +15694,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E140" s="19">
         <v>300168224</v>
@@ -15746,16 +15714,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E141" s="19">
         <v>300209286</v>
@@ -15766,13 +15734,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D142" s="19" t="s">
         <v>622</v>
@@ -15786,16 +15754,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E143" s="19">
         <v>300233975</v>
@@ -15806,16 +15774,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="19" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E144" s="19">
         <v>300195678</v>
@@ -15826,16 +15794,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E145" s="19">
         <v>300224230</v>
@@ -15846,16 +15814,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E146" s="19">
         <v>300036926</v>
@@ -15866,16 +15834,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E147" s="19">
         <v>300128374</v>
@@ -15886,16 +15854,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E148" s="19">
         <v>300128343</v>
@@ -15906,16 +15874,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E149" s="19">
         <v>300128347</v>
@@ -15927,13 +15895,13 @@
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E150" s="2">
         <v>300257199</v>
@@ -15945,13 +15913,13 @@
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E151" s="2">
         <v>300262254</v>
@@ -15963,13 +15931,13 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E152" s="2">
         <v>300046227</v>
@@ -15981,13 +15949,13 @@
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E153" s="2">
         <v>300046230</v>
@@ -15999,13 +15967,13 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E154" s="2">
         <v>300193993</v>
@@ -16017,13 +15985,13 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E155" s="2">
         <v>300026695</v>
@@ -16061,7 +16029,7 @@
         <v>315</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16085,7 +16053,7 @@
         <v>315</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -16093,7 +16061,7 @@
         <v>315</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -16109,7 +16077,7 @@
         <v>315</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -16125,7 +16093,7 @@
         <v>315</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -16138,122 +16106,122 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -16261,7 +16229,7 @@
         <v>105</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -16269,7 +16237,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -16277,7 +16245,7 @@
         <v>105</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -16285,7 +16253,7 @@
         <v>105</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -16301,7 +16269,7 @@
         <v>105</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -16309,7 +16277,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -16317,7 +16285,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -16325,7 +16293,7 @@
         <v>105</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -16333,7 +16301,7 @@
         <v>105</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -16341,7 +16309,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -16349,7 +16317,7 @@
         <v>105</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -16357,335 +16325,335 @@
         <v>105</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B73" s="27" t="s">
         <v>1096</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -16701,7 +16669,7 @@
         <v>316</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -16709,7 +16677,7 @@
         <v>316</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -16730,162 +16698,162 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B99" s="27" t="s">
         <v>807</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -16893,7 +16861,7 @@
         <v>113</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -16901,7 +16869,7 @@
         <v>113</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -16909,7 +16877,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -16917,7 +16885,7 @@
         <v>113</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -16925,7 +16893,7 @@
         <v>113</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -16933,7 +16901,7 @@
         <v>113</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -16941,7 +16909,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -16949,7 +16917,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -16957,7 +16925,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -16965,7 +16933,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -16973,7 +16941,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -16989,7 +16957,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -16997,7 +16965,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -17005,7 +16973,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -17013,7 +16981,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -17021,7 +16989,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -17029,7 +16997,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -17037,7 +17005,7 @@
         <v>113</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -17045,7 +17013,7 @@
         <v>113</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -17053,7 +17021,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -17061,7 +17029,7 @@
         <v>113</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -17069,7 +17037,7 @@
         <v>113</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -17077,7 +17045,7 @@
         <v>113</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -17085,7 +17053,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -17093,7 +17061,7 @@
         <v>113</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -17101,7 +17069,7 @@
         <v>113</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -17109,7 +17077,7 @@
         <v>113</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -17117,7 +17085,7 @@
         <v>113</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -17125,7 +17093,7 @@
         <v>113</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -17133,7 +17101,7 @@
         <v>113</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -17141,7 +17109,7 @@
         <v>113</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -17149,7 +17117,7 @@
         <v>113</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -17157,7 +17125,7 @@
         <v>113</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -17165,7 +17133,7 @@
         <v>113</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -17173,7 +17141,7 @@
         <v>113</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -17181,7 +17149,7 @@
         <v>113</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -17189,7 +17157,7 @@
         <v>113</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -17197,156 +17165,156 @@
         <v>113</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="35" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C149" s="10"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C150" s="10"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C151" s="10"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C152" s="10"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C153" s="10"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="C154" s="10"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C155" s="10"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C156" s="10"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C157" s="10"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C158" s="10"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C159" s="10"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C160" s="10"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C161" s="10"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C162" s="10"/>
     </row>
@@ -17398,16 +17366,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E2" s="41">
         <v>300026931</v>
@@ -17419,16 +17387,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E3" s="41">
         <v>300026931</v>
@@ -17440,16 +17408,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C4" s="41" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>1204</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>1208</v>
       </c>
       <c r="E4" s="41">
         <v>300264639</v>
@@ -17461,16 +17429,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E5" s="41">
         <v>300026931</v>
@@ -17482,16 +17450,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C6" s="41" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>1204</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>1208</v>
       </c>
       <c r="E6" s="41">
         <v>300264639</v>
@@ -17503,16 +17471,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="48"/>
@@ -17523,16 +17491,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="48"/>
@@ -17546,13 +17514,13 @@
         <v>409</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="48"/>
@@ -17586,7 +17554,7 @@
         <v>105</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -17594,7 +17562,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -17602,7 +17570,7 @@
         <v>121</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -17610,7 +17578,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -17618,7 +17586,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -17626,7 +17594,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -17634,7 +17602,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -17642,7 +17610,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -17650,7 +17618,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -17658,7 +17626,7 @@
         <v>121</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -17666,7 +17634,7 @@
         <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -17741,16 +17709,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="s">
@@ -17760,16 +17728,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>512</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
@@ -17779,16 +17747,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>1223</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>1227</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
@@ -17798,16 +17766,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
@@ -17817,16 +17785,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
@@ -17839,13 +17807,13 @@
         <v>363</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
@@ -17855,16 +17823,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
@@ -17874,16 +17842,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
@@ -17893,16 +17861,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
@@ -17912,16 +17880,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
@@ -17937,10 +17905,10 @@
         <v>118</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
@@ -17950,16 +17918,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
@@ -17969,16 +17937,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
@@ -17988,16 +17956,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
@@ -18007,16 +17975,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
@@ -18026,16 +17994,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
@@ -18045,16 +18013,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
@@ -18079,7 +18047,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -18125,16 +18093,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E2" s="41">
         <v>300388256</v>
@@ -18146,16 +18114,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>1262</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>1266</v>
       </c>
       <c r="E3" s="41">
         <v>300388277</v>
@@ -18167,16 +18135,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="E4" s="41">
         <v>300388306</v>
@@ -18188,16 +18156,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E5" s="41">
         <v>300388344</v>
@@ -18209,16 +18177,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="E6" s="41">
         <v>300387827</v>
@@ -18230,16 +18198,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E7" s="41">
         <v>300389734</v>
@@ -18251,16 +18219,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="E8" s="41">
         <v>300388401</v>
@@ -18272,16 +18240,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="E9" s="41">
         <v>300388474</v>
@@ -18293,16 +18261,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E10" s="41">
         <v>300388693</v>
@@ -18314,16 +18282,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E11" s="41">
         <v>300388256</v>
@@ -18335,16 +18303,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="E12" s="41">
         <v>300388737</v>
@@ -18356,16 +18324,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="E13" s="41">
         <v>300443706</v>
@@ -18377,16 +18345,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E14" s="41">
         <v>300389115</v>
@@ -18398,16 +18366,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E15" s="41">
         <v>300389311</v>
@@ -18419,16 +18387,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E16" s="41">
         <v>300388256</v>
@@ -18440,16 +18408,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E17" s="41">
         <v>300389336</v>
@@ -18481,210 +18449,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>1278</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -18943,16 +18911,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E2" s="19">
         <v>300411597</v>
@@ -18964,16 +18932,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>1317</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>1321</v>
       </c>
       <c r="E3" s="19">
         <v>300053386</v>
@@ -18985,16 +18953,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E4" s="19">
         <v>300374824</v>
@@ -19006,16 +18974,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="19">
         <v>300053319</v>
@@ -19027,16 +18995,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E6" s="19">
         <v>300053319</v>
@@ -19048,16 +19016,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E7" s="19">
         <v>300053225</v>
@@ -19069,16 +19037,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E8" s="19">
         <v>300252927</v>
@@ -19090,16 +19058,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E9" s="19">
         <v>300053463</v>
@@ -19111,16 +19079,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E10" s="19">
         <v>300252927</v>
@@ -19132,16 +19100,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E11" s="19">
         <v>300252927</v>
@@ -19153,16 +19121,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E12" s="19">
         <v>300053319</v>
@@ -19174,16 +19142,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E13" s="19">
         <v>300252927</v>
@@ -19195,16 +19163,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E14" s="19">
         <v>300247929</v>
@@ -19216,16 +19184,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E15" s="19">
         <v>300252927</v>
@@ -19237,16 +19205,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E16" s="19">
         <v>300053319</v>
@@ -19258,16 +19226,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E17" s="19">
         <v>300252927</v>
@@ -19279,16 +19247,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E18" s="19">
         <v>300247929</v>
@@ -19300,16 +19268,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E19" s="19">
         <v>300252927</v>
@@ -19321,16 +19289,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E20" s="19">
         <v>300053241</v>
@@ -19342,16 +19310,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E21" s="19">
         <v>300053242</v>
@@ -19363,16 +19331,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E22" s="19">
         <v>300155640</v>
@@ -19384,16 +19352,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E23" s="19">
         <v>300263218</v>
@@ -19405,16 +19373,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E24" s="51">
         <v>300053225</v>
@@ -19426,16 +19394,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E25" s="19">
         <v>300053220</v>
@@ -19447,16 +19415,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="E26" s="19">
         <v>300053272</v>
@@ -19468,16 +19436,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E27" s="19">
         <v>300265178</v>
@@ -19489,16 +19457,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E28" s="19">
         <v>300265082</v>
@@ -19510,16 +19478,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="E29" s="50">
         <v>300053228</v>
@@ -19531,16 +19499,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E30" s="19">
         <v>300053241</v>
@@ -19552,16 +19520,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E31" s="19">
         <v>300053241</v>
@@ -19573,16 +19541,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="E32" s="19">
         <v>300053207</v>
@@ -19594,16 +19562,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="E33" s="19">
         <v>300053275</v>
@@ -19615,16 +19583,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E34" s="19">
         <v>300053303</v>
@@ -19636,16 +19604,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E35" s="19">
         <v>300053296</v>
@@ -19657,16 +19625,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E36" s="19">
         <v>300053242</v>
@@ -19678,16 +19646,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="E37" s="19">
         <v>300263381</v>
@@ -19699,16 +19667,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E38" s="19">
         <v>300053303</v>
@@ -19720,16 +19688,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E39" s="19">
         <v>300053296</v>
@@ -19741,16 +19709,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E40" s="19">
         <v>300154361</v>
@@ -19762,16 +19730,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E41" s="19">
         <v>300053271</v>
@@ -19783,16 +19751,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="E42" s="19">
         <v>300343476</v>
@@ -19804,16 +19772,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E43" s="19">
         <v>300053239</v>
@@ -19825,16 +19793,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E44" s="19">
         <v>300190531</v>
@@ -19846,16 +19814,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E45" s="19">
         <v>300154361</v>
@@ -19867,16 +19835,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E46" s="19">
         <v>300053204</v>
@@ -19888,16 +19856,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E47" s="19">
         <v>300053231</v>
@@ -19909,16 +19877,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="E48" s="19">
         <v>300060720</v>
@@ -19930,16 +19898,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E49" s="19">
         <v>300053271</v>
@@ -19951,16 +19919,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E50" s="19">
         <v>300053285</v>
@@ -19972,16 +19940,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E51" s="19">
         <v>300053233</v>
@@ -19993,16 +19961,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E52" s="19">
         <v>300053277</v>
@@ -20014,16 +19982,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="E53" s="19">
         <v>300053279</v>
@@ -20035,16 +20003,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E54" s="19">
         <v>300053319</v>
@@ -20056,16 +20024,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="E55" s="19">
         <v>300190536</v>
@@ -20077,16 +20045,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E56" s="19">
         <v>300053285</v>
@@ -20098,16 +20066,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E57" s="19">
         <v>300053239</v>
@@ -20119,16 +20087,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E58" s="19">
         <v>300053271</v>
@@ -20140,16 +20108,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E59" s="19">
         <v>300157897</v>
@@ -20161,16 +20129,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E60" s="19">
         <v>300053251</v>
@@ -20182,16 +20150,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="E61" s="19">
         <v>300157968</v>
@@ -20203,16 +20171,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="E62" s="19">
         <v>300053281</v>
@@ -20224,16 +20192,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="E63" s="19">
         <v>300053366</v>
@@ -20245,16 +20213,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E64" s="19">
         <v>300138699</v>
@@ -20266,13 +20234,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>565</v>
@@ -20287,16 +20255,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E66" s="19">
         <v>300053277</v>
@@ -20308,16 +20276,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="E67" s="19">
         <v>300022452</v>
@@ -20329,16 +20297,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E68" s="19">
         <v>300022552</v>
@@ -20353,13 +20321,13 @@
         <v>397</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E69" s="19">
         <v>300247929</v>
@@ -20371,16 +20339,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="E70" s="19">
         <v>300053773</v>
@@ -20392,16 +20360,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="E71" s="19">
         <v>300053104</v>
@@ -20413,16 +20381,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E72" s="19">
         <v>300053225</v>
@@ -20434,16 +20402,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E73" s="19">
         <v>300053796</v>
@@ -20455,16 +20423,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E74" s="19">
         <v>300443550</v>
@@ -20476,16 +20444,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E75" s="19">
         <v>300053989</v>
@@ -20497,16 +20465,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E76" s="19">
         <v>300053796</v>
@@ -20518,16 +20486,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E77" s="19">
         <v>300053867</v>
@@ -20539,16 +20507,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="E78" s="19">
         <v>300311416</v>
@@ -20560,16 +20528,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E79" s="19">
         <v>300054216</v>
@@ -20581,16 +20549,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E80" s="19">
         <v>300443550</v>
@@ -20602,16 +20570,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E81" s="19">
         <v>300443550</v>
@@ -20623,16 +20591,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E82" s="19">
         <v>300053989</v>
@@ -20644,16 +20612,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E83" s="19">
         <v>300053242</v>
@@ -20665,16 +20633,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="E84" s="50">
         <v>300053228</v>
@@ -20686,16 +20654,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E85" s="19">
         <v>300053363</v>
@@ -20707,16 +20675,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E86" s="19">
         <v>300404638</v>
@@ -20728,16 +20696,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E87" s="19">
         <v>300190531</v>
@@ -20749,13 +20717,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>707</v>
@@ -20770,16 +20738,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E89" s="19">
         <v>300053233</v>
@@ -20791,16 +20759,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E90" s="19">
         <v>300404072</v>
@@ -20812,16 +20780,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E91" s="19">
         <v>300053251</v>
@@ -20858,7 +20826,7 @@
         <v>730</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20866,7 +20834,7 @@
         <v>730</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -20874,7 +20842,7 @@
         <v>729</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -20882,7 +20850,7 @@
         <v>729</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -20890,7 +20858,7 @@
         <v>729</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -20898,7 +20866,7 @@
         <v>729</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -20906,7 +20874,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -20914,7 +20882,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -20927,34 +20895,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>1494</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -20962,7 +20930,7 @@
         <v>716</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -20970,7 +20938,7 @@
         <v>716</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -20978,7 +20946,7 @@
         <v>716</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -20986,7 +20954,7 @@
         <v>716</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -20994,7 +20962,7 @@
         <v>716</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -21002,7 +20970,7 @@
         <v>716</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -21010,7 +20978,7 @@
         <v>716</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -21018,7 +20986,7 @@
         <v>716</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -21026,7 +20994,7 @@
         <v>716</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -21034,7 +21002,7 @@
         <v>716</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -21042,7 +21010,7 @@
         <v>716</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -21050,287 +21018,287 @@
         <v>659</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -21338,7 +21306,7 @@
         <v>693</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -21346,7 +21314,7 @@
         <v>693</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -21354,7 +21322,7 @@
         <v>693</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -21362,36 +21330,36 @@
         <v>693</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B68" s="27" t="s">
         <v>397</v>
@@ -21399,18 +21367,18 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -21418,7 +21386,7 @@
         <v>731</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -21426,23 +21394,23 @@
         <v>728</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -21450,7 +21418,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -21458,7 +21426,7 @@
         <v>113</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -21466,7 +21434,7 @@
         <v>113</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -21474,7 +21442,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -21482,7 +21450,7 @@
         <v>113</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -21490,7 +21458,7 @@
         <v>113</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -21498,7 +21466,7 @@
         <v>113</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -21506,7 +21474,7 @@
         <v>113</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -21514,159 +21482,159 @@
         <v>113</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="35" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B86" s="47" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="35" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B103" s="49" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B104" s="49" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
@@ -21716,16 +21684,16 @@
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E2" s="2">
         <v>300417206</v>
@@ -21740,13 +21708,13 @@
         <v>646</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1557</v>
       </c>
       <c r="E3" s="2">
         <v>300055029</v>
@@ -21761,13 +21729,13 @@
         <v>650</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1557</v>
       </c>
       <c r="E4" s="2">
         <v>300055029</v>
@@ -21779,16 +21747,16 @@
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E5" s="2">
         <v>300417198</v>
@@ -21800,16 +21768,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E6" s="2">
         <v>300417196</v>
@@ -21829,7 +21797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AF6CE-F34E-0A46-8A01-575A7A943B1E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -21840,47 +21808,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
   </sheetData>

--- a/admin/rdm/tw_rdm_for_prod_2021_12_08.xlsx
+++ b/admin/rdm/tw_rdm_for_prod_2021_12_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/PycharmProjects/arches/digipolis-arches-pkg/admin/rdm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A5E12-EDAE-3347-BB1C-37D7EF68F385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9A69E4-AFE2-F149-8E42-EADFD51C8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1460" windowWidth="27640" windowHeight="16540" firstSheet="8" activeTab="9" xr2:uid="{473DAA05-83F2-9341-A9FA-A7DB6C9571CF}"/>
+    <workbookView xWindow="1160" yWindow="3620" windowWidth="27640" windowHeight="16540" firstSheet="8" activeTab="9" xr2:uid="{473DAA05-83F2-9341-A9FA-A7DB6C9571CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation lookup" sheetId="1" r:id="rId1"/>
@@ -5111,7 +5111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5184,6 +5184,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5198,7 +5204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5338,12 +5344,32 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5421,22 +5447,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC000"/>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6267,11 +6277,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E908E89-AA0E-CE42-9749-895BE2FDC1FB}">
-  <dimension ref="A2:K56"/>
+  <dimension ref="A2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6548,7 +6558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>251</v>
       </c>
@@ -6566,7 +6576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>270</v>
       </c>
@@ -6582,7 +6592,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>273</v>
       </c>
@@ -6598,7 +6608,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>246</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>267</v>
       </c>
@@ -6636,7 +6646,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>292</v>
       </c>
@@ -6654,7 +6664,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>249</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>242</v>
       </c>
@@ -6694,7 +6704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>283</v>
       </c>
@@ -6712,7 +6722,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>286</v>
       </c>
@@ -6730,16 +6740,16 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="59" t="s">
         <v>229</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -6755,12 +6765,13 @@
       <c r="I30" s="54"/>
       <c r="J30" s="54"/>
       <c r="K30" s="54"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="L30" s="60"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="59" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -6776,12 +6787,13 @@
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
       <c r="K31" s="54"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="L31" s="60"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="59" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -6797,12 +6809,13 @@
       <c r="I32" s="54"/>
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="59" t="s">
         <v>239</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -6818,12 +6831,13 @@
       <c r="I33" s="54"/>
       <c r="J33" s="54"/>
       <c r="K33" s="54"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="L33" s="60"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="59" t="s">
         <v>241</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -6839,12 +6853,13 @@
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
       <c r="K34" s="54"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="L34" s="60"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="59" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -6862,12 +6877,13 @@
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
       <c r="K35" s="54"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="59" t="s">
         <v>239</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -6883,12 +6899,13 @@
       <c r="I36" s="54"/>
       <c r="J36" s="54"/>
       <c r="K36" s="54"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="L36" s="60"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="59" t="s">
         <v>247</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -6906,12 +6923,13 @@
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="59" t="s">
         <v>250</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -6929,12 +6947,13 @@
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="59" t="s">
         <v>252</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -6950,12 +6969,13 @@
       <c r="I39" s="54"/>
       <c r="J39" s="54"/>
       <c r="K39" s="54"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="L39" s="60"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="59" t="s">
         <v>254</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -6971,13 +6991,14 @@
       <c r="I40" s="54"/>
       <c r="J40" s="54"/>
       <c r="K40" s="54"/>
-    </row>
-    <row r="43" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L40" s="60"/>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>277</v>
       </c>
@@ -6991,7 +7012,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="57"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>274</v>
       </c>
@@ -7007,7 +7028,7 @@
       </c>
       <c r="F45" s="57"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>280</v>
       </c>
@@ -7023,7 +7044,7 @@
       </c>
       <c r="F46" s="57"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>263</v>
       </c>
@@ -7039,7 +7060,7 @@
       </c>
       <c r="F47" s="57"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>289</v>
       </c>
@@ -7267,52 +7288,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8 D10 D15:D16 D23 D26 D45:D48">
-    <cfRule type="expression" dxfId="9" priority="371">
+    <cfRule type="expression" dxfId="11" priority="371">
       <formula>AND(NOT(ISBLANK(D4:D926)),ISBLANK(E4:E926))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B26 B45:B48">
-    <cfRule type="expression" dxfId="8" priority="377">
+    <cfRule type="expression" dxfId="10" priority="377">
       <formula>AND(NOT(ISBLANK(B4:B926)),ISBLANK(D4:D926))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A26 A45:A48">
-    <cfRule type="expression" dxfId="7" priority="379">
+    <cfRule type="expression" dxfId="9" priority="379">
       <formula>AND(NOT(ISBLANK(B4:B926)),ISBLANK(A4:A926))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B26 D9 D11:D14 D17:D22 D24:D25 B45:B48">
-    <cfRule type="expression" dxfId="6" priority="381">
+    <cfRule type="expression" dxfId="8" priority="381">
       <formula>AND(NOT(ISBLANK(J4:J926)), J4:J926 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="5" priority="387">
+    <cfRule type="expression" dxfId="7" priority="387">
       <formula>AND(NOT(ISBLANK(D9:D931)),ISBLANK(F27:F931))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="expression" dxfId="4" priority="388">
+    <cfRule type="expression" dxfId="6" priority="388">
       <formula>AND(NOT(ISBLANK(D11:D933)),ISBLANK(F27:F933))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="3" priority="389">
+    <cfRule type="expression" dxfId="5" priority="389">
       <formula>AND(NOT(ISBLANK(D14:D936)),ISBLANK(F29:F936))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="expression" dxfId="2" priority="390">
+    <cfRule type="expression" dxfId="4" priority="390">
       <formula>AND(NOT(ISBLANK(D17:D939)),ISBLANK(F27:F939))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="expression" dxfId="1" priority="391">
+    <cfRule type="expression" dxfId="3" priority="391">
       <formula>AND(NOT(ISBLANK(D20:D942)),ISBLANK(F29:F942))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="expression" dxfId="0" priority="392">
+    <cfRule type="expression" dxfId="2" priority="392">
       <formula>AND(NOT(ISBLANK(D24:D946)),ISBLANK(F27:F946))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12193,12 +12214,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(NOT(ISBLANK(B16:B1143)),ISBLANK(D16:D1143))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>AND(NOT(ISBLANK(#REF!)), #REF! &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/admin/rdm/tw_rdm_for_prod_2021_12_08.xlsx
+++ b/admin/rdm/tw_rdm_for_prod_2021_12_08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="3624" windowWidth="27636" windowHeight="16536" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="1164" yWindow="3624" windowWidth="27636" windowHeight="16536" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation lookup" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,6 @@
     <definedName name="include_codes_temp_2" localSheetId="18">'Material mapping'!$A$130:$B$143</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5216,7 +5215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5362,17 +5361,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5531,6 +5549,22 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -5622,11 +5656,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5638,11 +5672,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5654,11 +5688,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="include_codes_temp_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6291,11 +6325,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L56"/>
+  <dimension ref="A2:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7007,6 +7041,21 @@
       <c r="K40" s="54"/>
       <c r="L40" s="60"/>
     </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="63">
+        <v>300444119</v>
+      </c>
+    </row>
     <row r="43" spans="1:12" ht="18">
       <c r="A43" s="58" t="s">
         <v>1560</v>
@@ -7150,14 +7199,14 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="19" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E53" s="19">
         <v>300444119</v>
@@ -7166,14 +7215,14 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E54" s="19">
         <v>300444119</v>
@@ -7182,173 +7231,177 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E55" s="19">
         <v>300444119</v>
       </c>
       <c r="F55" s="57"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="E56" s="19">
-        <v>300444119</v>
-      </c>
-      <c r="F56" s="57"/>
     </row>
   </sheetData>
   <sortState ref="A3:F28">
     <sortCondition ref="D3:D28"/>
   </sortState>
-  <conditionalFormatting sqref="B55:B56">
-    <cfRule type="expression" dxfId="28" priority="25">
-      <formula>AND(NOT(ISBLANK(B55:B988)),ISBLANK(D55:D988))</formula>
+  <conditionalFormatting sqref="B54:B55">
+    <cfRule type="expression" dxfId="32" priority="25">
+      <formula>AND(NOT(ISBLANK(B54:B987)),ISBLANK(D54:D987))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A56">
-    <cfRule type="expression" dxfId="27" priority="26">
-      <formula>AND(NOT(ISBLANK(B55:B988)),ISBLANK(A55:A988))</formula>
+  <conditionalFormatting sqref="A54:A55">
+    <cfRule type="expression" dxfId="31" priority="26">
+      <formula>AND(NOT(ISBLANK(B54:B987)),ISBLANK(A54:A987))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B56 D55">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>AND(NOT(ISBLANK(J55:J988)), J55:J988 &lt; 1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="25" priority="1">
-      <formula>AND(NOT(ISBLANK(D56:D989)),ISBLANK(E56:E989))</formula>
+  <conditionalFormatting sqref="B54:B55 D54">
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>AND(NOT(ISBLANK(J54:J987)), J54:J987 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="24" priority="10">
-      <formula>AND(NOT(ISBLANK(D55:D988)),ISBLANK(F58:F988))</formula>
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>AND(NOT(ISBLANK(D55:D988)),ISBLANK(E55:E988))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B54">
-    <cfRule type="expression" dxfId="23" priority="259">
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="28" priority="10">
+      <formula>AND(NOT(ISBLANK(D54:D987)),ISBLANK(F57:F987))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="27" priority="259">
       <formula>AND(NOT(ISBLANK(B53:B984)),ISBLANK(D53:D984))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54">
-    <cfRule type="expression" dxfId="22" priority="261">
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="26" priority="261">
       <formula>AND(NOT(ISBLANK(B53:B984)),ISBLANK(A53:A984))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D54 B53:B54">
-    <cfRule type="expression" dxfId="21" priority="263">
+  <conditionalFormatting sqref="D53 B53">
+    <cfRule type="expression" dxfId="25" priority="263">
       <formula>AND(NOT(ISBLANK(J53:J984)), J53:J984 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D54">
-    <cfRule type="expression" dxfId="20" priority="301">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="24" priority="301">
       <formula>AND(NOT(ISBLANK(D53:D984)),ISBLANK(F60:F984))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B52">
-    <cfRule type="expression" dxfId="19" priority="302">
-      <formula>AND(NOT(ISBLANK(B51:B981)),ISBLANK(D51:D981))</formula>
+    <cfRule type="expression" dxfId="21" priority="403">
+      <formula>AND(NOT(ISBLANK(B51:B980)),ISBLANK(D51:D980))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="18" priority="303">
-      <formula>AND(NOT(ISBLANK(B51:B981)),ISBLANK(A51:A981))</formula>
+    <cfRule type="expression" dxfId="20" priority="404">
+      <formula>AND(NOT(ISBLANK(B51:B980)),ISBLANK(A51:A980))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D52 B51:B52">
-    <cfRule type="expression" dxfId="17" priority="304">
-      <formula>AND(NOT(ISBLANK(J51:J981)), J51:J981 &lt; 1)</formula>
+    <cfRule type="expression" dxfId="19" priority="405">
+      <formula>AND(NOT(ISBLANK(J51:J980)), J51:J980 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D52">
-    <cfRule type="expression" dxfId="16" priority="306">
-      <formula>AND(NOT(ISBLANK(D51:D981)),ISBLANK(F58:F981))</formula>
+    <cfRule type="expression" dxfId="18" priority="407">
+      <formula>AND(NOT(ISBLANK(D51:D980)),ISBLANK(F57:F980))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B50">
-    <cfRule type="expression" dxfId="15" priority="341">
-      <formula>AND(NOT(ISBLANK(B49:B974)),ISBLANK(D49:D974))</formula>
+    <cfRule type="expression" dxfId="17" priority="408">
+      <formula>AND(NOT(ISBLANK(B49:B973)),ISBLANK(D49:D973))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A50">
-    <cfRule type="expression" dxfId="14" priority="342">
-      <formula>AND(NOT(ISBLANK(B49:B974)),ISBLANK(A49:A974))</formula>
+    <cfRule type="expression" dxfId="16" priority="409">
+      <formula>AND(NOT(ISBLANK(B49:B973)),ISBLANK(A49:A973))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 B49:B50">
-    <cfRule type="expression" dxfId="13" priority="343">
-      <formula>AND(NOT(ISBLANK(J49:J974)), J49:J974 &lt; 1)</formula>
+    <cfRule type="expression" dxfId="15" priority="410">
+      <formula>AND(NOT(ISBLANK(J49:J973)), J49:J973 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="12" priority="345">
-      <formula>AND(NOT(ISBLANK(D49:D974)),ISBLANK(F57:F974))</formula>
+    <cfRule type="expression" dxfId="14" priority="412">
+      <formula>AND(NOT(ISBLANK(D49:D973)),ISBLANK(F56:F973))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8 D10 D15:D16 D23 D26 D45:D48">
-    <cfRule type="expression" dxfId="11" priority="371">
-      <formula>AND(NOT(ISBLANK(D4:D926)),ISBLANK(E4:E926))</formula>
+    <cfRule type="expression" dxfId="13" priority="413">
+      <formula>AND(NOT(ISBLANK(D4:D925)),ISBLANK(E4:E925))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B26 B45:B48">
-    <cfRule type="expression" dxfId="10" priority="377">
-      <formula>AND(NOT(ISBLANK(B4:B926)),ISBLANK(D4:D926))</formula>
+    <cfRule type="expression" dxfId="12" priority="419">
+      <formula>AND(NOT(ISBLANK(B4:B925)),ISBLANK(D4:D925))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A26 A45:A48">
-    <cfRule type="expression" dxfId="9" priority="379">
-      <formula>AND(NOT(ISBLANK(B4:B926)),ISBLANK(A4:A926))</formula>
+    <cfRule type="expression" dxfId="11" priority="421">
+      <formula>AND(NOT(ISBLANK(B4:B925)),ISBLANK(A4:A925))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B26 D9 D11:D14 D17:D22 D24:D25 B45:B48">
-    <cfRule type="expression" dxfId="8" priority="381">
-      <formula>AND(NOT(ISBLANK(J4:J926)), J4:J926 &lt; 1)</formula>
+    <cfRule type="expression" dxfId="10" priority="423">
+      <formula>AND(NOT(ISBLANK(J4:J925)), J4:J925 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="7" priority="387">
-      <formula>AND(NOT(ISBLANK(D9:D931)),ISBLANK(F27:F931))</formula>
+    <cfRule type="expression" dxfId="9" priority="429">
+      <formula>AND(NOT(ISBLANK(D9:D930)),ISBLANK(F27:F930))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="expression" dxfId="6" priority="388">
-      <formula>AND(NOT(ISBLANK(D11:D933)),ISBLANK(F27:F933))</formula>
+    <cfRule type="expression" dxfId="8" priority="430">
+      <formula>AND(NOT(ISBLANK(D11:D932)),ISBLANK(F27:F932))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="5" priority="389">
-      <formula>AND(NOT(ISBLANK(D14:D936)),ISBLANK(F29:F936))</formula>
+    <cfRule type="expression" dxfId="7" priority="431">
+      <formula>AND(NOT(ISBLANK(D14:D935)),ISBLANK(F29:F935))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="expression" dxfId="4" priority="390">
-      <formula>AND(NOT(ISBLANK(D17:D939)),ISBLANK(F27:F939))</formula>
+    <cfRule type="expression" dxfId="6" priority="432">
+      <formula>AND(NOT(ISBLANK(D17:D938)),ISBLANK(F27:F938))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="expression" dxfId="3" priority="391">
-      <formula>AND(NOT(ISBLANK(D20:D942)),ISBLANK(F29:F942))</formula>
+    <cfRule type="expression" dxfId="5" priority="433">
+      <formula>AND(NOT(ISBLANK(D20:D941)),ISBLANK(F29:F941))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="expression" dxfId="2" priority="392">
-      <formula>AND(NOT(ISBLANK(D24:D946)),ISBLANK(F27:F946))</formula>
+    <cfRule type="expression" dxfId="4" priority="434">
+      <formula>AND(NOT(ISBLANK(D24:D945)),ISBLANK(F27:F945))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="3" priority="435">
+      <formula>AND(NOT(ISBLANK(B41:B983)),ISBLANK(D41:D983))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="2" priority="436">
+      <formula>AND(NOT(ISBLANK(B41:B983)),ISBLANK(A41:A983))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41 B41">
+    <cfRule type="expression" dxfId="1" priority="437">
+      <formula>AND(NOT(ISBLANK(J53:J983)), J53:J983 &lt; 1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="0" priority="439">
+      <formula>AND(NOT(ISBLANK(D41:D983)),ISBLANK(F59:F983))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12228,12 +12281,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND(NOT(ISBLANK(B16:B1143)),ISBLANK(D16:D1143))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>AND(NOT(ISBLANK(#REF!)), #REF! &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16822,7 +16875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
